--- a/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
+++ b/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
   <si>
     <t>土地坐落</t>
   </si>
@@ -165,6 +165,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>五鼎生技</t>
   </si>
   <si>
@@ -172,6 +181,9 @@
   </si>
   <si>
     <t>29，780</t>
+  </si>
+  <si>
+    <t>2012-03-06</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1059,13 +1071,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1084,13 +1096,22 @@
       <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1105,15 +1126,24 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1129,6 +1159,15 @@
       </c>
       <c r="G3" s="2">
         <v>27490</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2">
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -1149,19 +1188,19 @@
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1169,22 +1208,22 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
         <v>2529473</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1192,22 +1231,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2">
         <v>4579121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1215,22 +1254,22 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2">
         <v>6004284</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1238,22 +1277,22 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2">
         <v>305434</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1261,22 +1300,22 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2">
         <v>4742000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1284,22 +1323,22 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2">
         <v>1848023</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1307,22 +1346,22 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2">
         <v>330750</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
+++ b/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>土地坐落</t>
   </si>
@@ -165,6 +165,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -180,7 +183,10 @@
     <t>萊德科技</t>
   </si>
   <si>
-    <t>29，780</t>
+    <t>29780</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-03-06</t>
@@ -1071,13 +1077,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1105,13 +1111,16 @@
       <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1126,24 +1135,27 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>962</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1161,12 +1173,15 @@
         <v>27490</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>962</v>
       </c>
     </row>
@@ -1188,19 +1203,19 @@
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1208,22 +1223,22 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>2529473</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1231,22 +1246,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2">
         <v>4579121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1254,22 +1269,22 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2">
         <v>6004284</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1277,22 +1292,22 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2">
         <v>305434</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1300,22 +1315,22 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2">
         <v>4742000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1323,22 +1338,22 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2">
         <v>1848023</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1346,22 +1361,22 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2">
         <v>330750</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
+++ b/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="85">
   <si>
     <t>土地坐落</t>
   </si>
@@ -168,6 +168,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -177,6 +180,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>五鼎生技</t>
   </si>
   <si>
@@ -189,7 +198,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-03-06</t>
+  </si>
+  <si>
+    <t>tmpec731</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1077,13 +1092,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1114,13 +1129,22 @@
       <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
@@ -1135,27 +1159,36 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>962</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1173,16 +1206,25 @@
         <v>27490</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>962</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1203,19 +1245,19 @@
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1223,22 +1265,22 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>2529473</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1246,22 +1288,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2">
         <v>4579121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1269,22 +1311,22 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2">
         <v>6004284</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1292,22 +1334,22 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2">
         <v>305434</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1315,22 +1357,22 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2">
         <v>4742000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1338,22 +1380,22 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E7" s="2">
         <v>1848023</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1361,22 +1403,22 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2">
         <v>330750</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
+++ b/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
@@ -19,9 +19,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="85">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="90">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺東縣東河鄉都蘭段10420000地號</t>
+  </si>
+  <si>
+    <t>臺東縣成功鎮忠智段11700001地號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市豐康段07330119地號</t>
+  </si>
+  <si>
+    <t>臺東縣台東市新生段00020006地號</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>廖國棟</t>
+  </si>
+  <si>
+    <t>陳姿伶</t>
+  </si>
+  <si>
+    <t>89年09月27日</t>
+  </si>
+  <si>
+    <t>86年11月03日</t>
+  </si>
+  <si>
+    <t>90年01月12日</t>
+  </si>
+  <si>
+    <t>94年04月15日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>夫妻贈與</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-06</t>
+  </si>
+  <si>
+    <t>tmpec731</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,51 +138,6 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺東縣東河鄉都蘭段1042-0000 地號</t>
-  </si>
-  <si>
-    <t>臺東縣成功鎮忠智段1170-0001 地號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市豐康段0733-0119 地號</t>
-  </si>
-  <si>
-    <t>臺東縣台東市新生段0002-0006 地號</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>廖國棟</t>
-  </si>
-  <si>
-    <t>陳姿伶</t>
-  </si>
-  <si>
-    <t>89年09月 27日</t>
-  </si>
-  <si>
-    <t>86年11月 03日</t>
-  </si>
-  <si>
-    <t>90年01月 12日</t>
-  </si>
-  <si>
-    <t>94年04月 15日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>夫妻贈與</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
     <t>臺東縣成功鎮大同路</t>
   </si>
   <si>
@@ -96,10 +147,10 @@
     <t>臺東縣台東市永樂路</t>
   </si>
   <si>
-    <t>94年09月 15日</t>
-  </si>
-  <si>
-    <t>90年01月 12 F1</t>
+    <t>94年09月15日</t>
+  </si>
+  <si>
+    <t>90年01月12F1</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -117,10 +168,10 @@
     <t>休旅車</t>
   </si>
   <si>
-    <t>99年09月 01日</t>
-  </si>
-  <si>
-    <t>93年01月 06 H</t>
+    <t>99年09月01日</t>
+  </si>
+  <si>
+    <t>93年01月06H</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -147,12 +198,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -165,27 +210,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>五鼎生技</t>
   </si>
   <si>
@@ -198,15 +222,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-03-06</t>
-  </si>
-  <si>
-    <t>tmpec731</t>
-  </si>
-  <si>
     <t>債務人</t>
   </si>
   <si>
@@ -231,40 +246,40 @@
     <t>一般貸款</t>
   </si>
   <si>
-    <t>土地銀行台東分行 臺東縣台東市中華路</t>
-  </si>
-  <si>
-    <t>華南銀行台東分行 臺東縣台東市中華路</t>
-  </si>
-  <si>
-    <t>台灣企銀台東分行 臺東縣台東市中華路</t>
-  </si>
-  <si>
-    <t>台新銀行三重分行 新北市三重區正義北路</t>
-  </si>
-  <si>
-    <t>台東縣都蘭農會 臺東縣東河鄉都蘭村都蘭</t>
-  </si>
-  <si>
-    <t>98年05月 06日</t>
-  </si>
-  <si>
-    <t>90年01月 12 H</t>
-  </si>
-  <si>
-    <t>94年10月 11曰</t>
-  </si>
-  <si>
-    <t>99年08月 27日</t>
-  </si>
-  <si>
-    <t>93年08月 31日</t>
-  </si>
-  <si>
-    <t>100年07月 01日</t>
-  </si>
-  <si>
-    <t>96年03月 13曰</t>
+    <t>土地銀行台東分行臺東縣台東市中華路</t>
+  </si>
+  <si>
+    <t>華南銀行台東分行臺東縣台東市中華路</t>
+  </si>
+  <si>
+    <t>台灣企銀台東分行臺東縣台東市中華路</t>
+  </si>
+  <si>
+    <t>台新銀行三重分行新北市三重區正義北路</t>
+  </si>
+  <si>
+    <t>台東縣都蘭農會臺東縣東河鄉都蘭村都蘭</t>
+  </si>
+  <si>
+    <t>98年05月06日</t>
+  </si>
+  <si>
+    <t>90年01月12H</t>
+  </si>
+  <si>
+    <t>94年10月11曰</t>
+  </si>
+  <si>
+    <t>99年08月27日</t>
+  </si>
+  <si>
+    <t>93年08月31日</t>
+  </si>
+  <si>
+    <t>100年07月01日</t>
+  </si>
+  <si>
+    <t>96年03月13曰</t>
   </si>
   <si>
     <t>房貸</t>
@@ -632,13 +647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,109 +675,214 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>15427</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2">
         <v>2082645</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>962</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>104.46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2">
         <v>699882</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>962</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>220.81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2">
         <v>1104050</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>962</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2">
         <v>1930500</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>962</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -780,25 +900,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -806,22 +926,22 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>194.93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2">
         <v>474900</v>
@@ -832,22 +952,22 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>332.69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2">
         <v>784500</v>
@@ -858,22 +978,22 @@
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>292.61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2">
         <v>706500</v>
@@ -894,22 +1014,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -917,19 +1037,19 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2">
         <v>660000</v>
@@ -940,19 +1060,19 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>2500</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2">
         <v>965000</v>
@@ -963,7 +1083,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
         <v>2000</v>
@@ -990,19 +1110,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1010,16 +1130,16 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>11250</v>
@@ -1030,16 +1150,16 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>151708</v>
@@ -1050,16 +1170,16 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>576594</v>
@@ -1070,16 +1190,16 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>86947</v>
@@ -1100,43 +1220,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1144,10 +1264,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>2978</v>
@@ -1156,28 +1276,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>962</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2">
         <v>61</v>
@@ -1188,10 +1308,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>2749</v>
@@ -1200,28 +1320,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2">
         <v>27490</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2">
         <v>962</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2">
         <v>62</v>
@@ -1242,22 +1362,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1265,22 +1385,22 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>2529473</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1288,22 +1408,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
         <v>4579121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1311,22 +1431,22 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>6004284</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1334,22 +1454,22 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2">
         <v>305434</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1357,22 +1477,22 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2">
         <v>4742000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1380,22 +1500,22 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2">
         <v>1848023</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1403,22 +1523,22 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2">
         <v>330750</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
+++ b/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺東縣東河鄉都蘭段10420000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺東縣成功鎮忠智段11700001地號</t>
@@ -75,9 +78,6 @@
     <t>臺東縣台東市新生段00020006地號</t>
   </si>
   <si>
-    <t>2分之1</t>
-  </si>
-  <si>
     <t>全部</t>
   </si>
   <si>
@@ -87,9 +87,6 @@
     <t>陳姿伶</t>
   </si>
   <si>
-    <t>89年09月27日</t>
-  </si>
-  <si>
     <t>86年11月03日</t>
   </si>
   <si>
@@ -117,27 +114,6 @@
     <t>tmpec731</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺東縣成功鎮大同路</t>
   </si>
   <si>
@@ -153,51 +129,30 @@
     <t>90年01月12F1</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>轎車</t>
   </si>
   <si>
+    <t>99年09月01日</t>
+  </si>
+  <si>
     <t>休旅車</t>
   </si>
   <si>
-    <t>99年09月01日</t>
-  </si>
-  <si>
     <t>93年01月06H</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台灣郵政股份有限公司</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>台灣銀行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -207,48 +162,30 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>五鼎生技</t>
-  </si>
-  <si>
     <t>萊德科技</t>
   </si>
   <si>
-    <t>29780</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>貸款</t>
   </si>
   <si>
+    <t>土地銀行台東分行臺東縣台東市中華路</t>
+  </si>
+  <si>
+    <t>98年05月06日</t>
+  </si>
+  <si>
+    <t>房貸</t>
+  </si>
+  <si>
     <t>車貸</t>
   </si>
   <si>
     <t>一般貸款</t>
   </si>
   <si>
-    <t>土地銀行台東分行臺東縣台東市中華路</t>
-  </si>
-  <si>
     <t>華南銀行台東分行臺東縣台東市中華路</t>
   </si>
   <si>
@@ -261,9 +198,6 @@
     <t>台東縣都蘭農會臺東縣東河鄉都蘭村都蘭</t>
   </si>
   <si>
-    <t>98年05月06日</t>
-  </si>
-  <si>
     <t>90年01月12H</t>
   </si>
   <si>
@@ -280,9 +214,6 @@
   </si>
   <si>
     <t>96年03月13曰</t>
-  </si>
-  <si>
-    <t>房貸</t>
   </si>
   <si>
     <t>—般貸款</t>
@@ -647,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,19 +627,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>15427</v>
+        <v>104.46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -717,19 +654,19 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2">
-        <v>2082645</v>
+        <v>699882</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>20</v>
@@ -738,27 +675,33 @@
         <v>962</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>104.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>104.46</v>
+        <v>220.81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
@@ -767,16 +710,16 @@
         <v>26</v>
       </c>
       <c r="H3" s="2">
-        <v>699882</v>
+        <v>1104050</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>20</v>
@@ -785,21 +728,27 @@
         <v>962</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>220.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>220.81</v>
+        <v>117</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -811,19 +760,19 @@
         <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1930500</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2">
-        <v>1104050</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>20</v>
@@ -832,57 +781,16 @@
         <v>962</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>117</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1930500</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2">
-        <v>962</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="2">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +800,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -900,62 +808,62 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>194.93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="H1" s="1">
+        <v>474900</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
-        <v>194.93</v>
+        <v>332.69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2">
-        <v>474900</v>
+        <v>784500</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
-        <v>332.69</v>
+        <v>292.61</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -964,38 +872,12 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="2">
-        <v>784500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="2">
-        <v>292.61</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2">
         <v>706500</v>
       </c>
     </row>
@@ -1006,7 +888,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1014,84 +896,61 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="G1" s="1">
+        <v>660000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
-        <v>660000</v>
+        <v>965000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
-        <v>2500</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>965000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
         <v>889000</v>
       </c>
     </row>
@@ -1102,7 +961,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1110,98 +969,78 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>20</v>
+      </c>
+      <c r="F1" s="1">
+        <v>11250</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2">
-        <v>11250</v>
+        <v>151708</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
-        <v>151708</v>
+        <v>576594</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="2">
-        <v>576594</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>55</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2">
         <v>86947</v>
       </c>
     </row>
@@ -1212,7 +1051,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1226,16 +1065,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1261,34 +1100,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2">
-        <v>2978</v>
+        <v>2749</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
+      </c>
+      <c r="G2" s="2">
+        <v>27490</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>20</v>
@@ -1297,53 +1136,9 @@
         <v>962</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>62</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2749</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="2">
-        <v>27490</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2">
-        <v>962</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2">
         <v>62</v>
       </c>
     </row>
@@ -1354,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,183 +1157,160 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2529473</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2">
-        <v>2529473</v>
+        <v>4579121</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2">
-        <v>4579121</v>
+        <v>6004284</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2">
-        <v>6004284</v>
+        <v>305434</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2">
-        <v>305434</v>
+        <v>4742000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2">
-        <v>4742000</v>
+        <v>1848023</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2">
-        <v>1848023</v>
+        <v>330750</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>101</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="2">
-        <v>330750</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
+++ b/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺東縣東河鄉都蘭段10420000地號</t>
+  </si>
+  <si>
     <t>臺東縣成功鎮忠智段11700001地號</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
     <t>臺東縣台東市新生段00020006地號</t>
   </si>
   <si>
+    <t>2分之1</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
@@ -87,6 +93,9 @@
     <t>陳姿伶</t>
   </si>
   <si>
+    <t>89年09月27日</t>
+  </si>
+  <si>
     <t>86年11月03日</t>
   </si>
   <si>
@@ -162,7 +171,13 @@
     <t>currency</t>
   </si>
   <si>
+    <t>五鼎生技</t>
+  </si>
+  <si>
     <t>萊德科技</t>
+  </si>
+  <si>
+    <t>29780</t>
   </si>
   <si>
     <t>stock</t>
@@ -578,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -636,160 +651,213 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>104.46</v>
+        <v>15427</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2">
-        <v>699882</v>
+        <v>2082645</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2">
         <v>962</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="2">
-        <v>104.46</v>
+        <v>7713.5</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>220.81</v>
+        <v>104.46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2">
-        <v>1104050</v>
+        <v>699882</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2">
         <v>962</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>220.81</v>
+        <v>104.46</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>117</v>
+        <v>220.81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2">
-        <v>1930500</v>
+        <v>1104050</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2">
         <v>962</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
+        <v>220.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>117</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1930500</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>962</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
         <v>117</v>
       </c>
     </row>
@@ -800,85 +868,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2">
+        <v>194.93</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2">
+        <v>474900</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1">
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>962</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>194.93</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1">
-        <v>474900</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2">
+        <v>332.69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2">
+        <v>784500</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2">
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>962</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>332.69</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2">
+        <v>292.61</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2">
-        <v>784500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2">
+        <v>706500</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>962</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2">
+      <c r="O4" s="2">
+        <v>23</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>292.61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2">
-        <v>706500</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +1090,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -896,19 +1098,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1">
         <v>2000</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1">
         <v>660000</v>
@@ -916,41 +1118,64 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2">
-        <v>965000</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2">
+        <v>965000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>37</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2">
         <v>2000</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
         <v>889000</v>
       </c>
     </row>
@@ -961,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -969,16 +1194,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1">
         <v>11250</v>
@@ -986,61 +1211,81 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2">
-        <v>151708</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
-        <v>576594</v>
+        <v>151708</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2">
+        <v>576594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
         <v>86947</v>
       </c>
     </row>
@@ -1051,7 +1296,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1065,13 +1310,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1100,45 +1345,89 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
-        <v>2749</v>
+        <v>2978</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="2">
-        <v>27490</v>
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2">
         <v>962</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2749</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2">
+        <v>27490</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2">
+        <v>962</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2">
         <v>62</v>
       </c>
     </row>
@@ -1149,7 +1438,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1157,160 +1446,183 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1">
         <v>2529473</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E2" s="2">
-        <v>4579121</v>
+        <v>2529473</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2">
-        <v>6004284</v>
+        <v>4579121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6004284</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E4" s="2">
-        <v>305434</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="2">
+        <v>305434</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4742000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2">
-        <v>1848023</v>
+        <v>4742000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2">
+        <v>1848023</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>101</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="2">
         <v>330750</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>65</v>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
+++ b/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -138,13 +138,16 @@
     <t>90年01月12F1</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>轎車</t>
   </si>
   <si>
+    <t>休旅車</t>
+  </si>
+  <si>
     <t>99年09月01日</t>
-  </si>
-  <si>
-    <t>休旅車</t>
   </si>
   <si>
     <t>93年01月06H</t>
@@ -1090,38 +1093,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1">
-        <v>2000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1">
-        <v>660000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -1130,7 +1154,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
@@ -1138,8 +1162,29 @@
       <c r="G2" s="2">
         <v>660000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>962</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>34</v>
       </c>
@@ -1153,7 +1198,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>28</v>
@@ -1161,8 +1206,29 @@
       <c r="G3" s="2">
         <v>965000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2">
+        <v>962</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>37</v>
       </c>
@@ -1177,6 +1243,27 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>889000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2">
+        <v>962</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1194,13 +1281,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1214,13 +1301,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1234,13 +1321,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1254,13 +1341,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1274,13 +1361,13 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1310,13 +1397,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1348,7 +1435,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1360,13 +1447,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1392,7 +1479,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1404,13 +1491,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
         <v>27490</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
@@ -1446,22 +1533,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1">
         <v>2529473</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1469,22 +1556,22 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2">
         <v>2529473</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1492,22 +1579,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2">
         <v>4579121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1515,22 +1602,22 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2">
         <v>6004284</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1538,22 +1625,22 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2">
         <v>305434</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1561,22 +1648,22 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2">
         <v>4742000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1584,22 +1671,22 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2">
         <v>1848023</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1607,22 +1694,22 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2">
         <v>330750</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
+++ b/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -138,6 +138,9 @@
     <t>90年01月12F1</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -151,6 +154,9 @@
   </si>
   <si>
     <t>93年01月06H</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台灣郵政股份有限公司</t>
@@ -953,7 +959,7 @@
         <v>474900</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>31</v>
@@ -1006,7 +1012,7 @@
         <v>784500</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>31</v>
@@ -1059,7 +1065,7 @@
         <v>706500</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>31</v>
@@ -1104,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1145,7 +1151,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>2000</v>
@@ -1154,7 +1160,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
@@ -1163,7 +1169,7 @@
         <v>660000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1189,7 +1195,7 @@
         <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>2500</v>
@@ -1198,7 +1204,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>28</v>
@@ -1207,7 +1213,7 @@
         <v>965000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
@@ -1233,7 +1239,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2">
         <v>2000</v>
@@ -1245,7 +1251,7 @@
         <v>889000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>31</v>
@@ -1281,13 +1287,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1301,13 +1307,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1321,13 +1327,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1341,13 +1347,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1361,13 +1367,13 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1397,13 +1403,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1435,7 +1441,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1447,13 +1453,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1479,7 +1485,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1491,13 +1497,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2">
         <v>27490</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
@@ -1533,22 +1539,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1">
         <v>2529473</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1556,22 +1562,22 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2">
         <v>2529473</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1579,22 +1585,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2">
         <v>4579121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1602,22 +1608,22 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2">
         <v>6004284</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1625,22 +1631,22 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2">
         <v>305434</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1648,22 +1654,22 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2">
         <v>4742000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1671,22 +1677,22 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2">
         <v>1848023</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1694,22 +1700,22 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2">
         <v>330750</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
+++ b/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -159,25 +159,34 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台灣郵政股份有限公司</t>
   </si>
   <si>
+    <t>台灣銀行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台灣銀行</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>五鼎生技</t>
@@ -1279,13 +1288,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1296,24 +1305,45 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1">
-        <v>11250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1321,19 +1351,40 @@
       <c r="F2" s="2">
         <v>11250</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2">
+        <v>962</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1341,19 +1392,40 @@
       <c r="F3" s="2">
         <v>151708</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2">
+        <v>962</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
@@ -1361,25 +1433,67 @@
       <c r="F4" s="2">
         <v>576594</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
+        <v>962</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>86947</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>962</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1517,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1441,7 +1555,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -1453,13 +1567,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1485,7 +1599,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1497,13 +1611,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2">
         <v>27490</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
@@ -1539,22 +1653,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1">
         <v>2529473</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1562,22 +1676,22 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
         <v>2529473</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1585,22 +1699,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2">
         <v>4579121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1608,22 +1722,22 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2">
         <v>6004284</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1631,22 +1745,22 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2">
         <v>305434</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1654,22 +1768,22 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2">
         <v>4742000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1677,22 +1791,22 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2">
         <v>1848023</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1700,22 +1814,22 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2">
         <v>330750</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
+++ b/legislator/property/output/normal/廖國棟_2012-03-06_財產申報表_tmpec731.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -201,58 +201,67 @@
     <t>stock</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>貸款</t>
   </si>
   <si>
+    <t>車貸</t>
+  </si>
+  <si>
+    <t>一般貸款</t>
+  </si>
+  <si>
     <t>土地銀行台東分行臺東縣台東市中華路</t>
   </si>
   <si>
+    <t>華南銀行台東分行臺東縣台東市中華路</t>
+  </si>
+  <si>
+    <t>台灣企銀台東分行臺東縣台東市中華路</t>
+  </si>
+  <si>
+    <t>台新銀行三重分行新北市三重區正義北路</t>
+  </si>
+  <si>
+    <t>台東縣都蘭農會臺東縣東河鄉都蘭村都蘭</t>
+  </si>
+  <si>
     <t>98年05月06日</t>
   </si>
   <si>
+    <t>90年01月12H</t>
+  </si>
+  <si>
+    <t>94年10月11曰</t>
+  </si>
+  <si>
+    <t>99年08月27日</t>
+  </si>
+  <si>
+    <t>93年08月31日</t>
+  </si>
+  <si>
+    <t>100年07月01日</t>
+  </si>
+  <si>
+    <t>96年03月13曰</t>
+  </si>
+  <si>
     <t>房貸</t>
   </si>
   <si>
-    <t>車貸</t>
-  </si>
-  <si>
-    <t>一般貸款</t>
-  </si>
-  <si>
-    <t>華南銀行台東分行臺東縣台東市中華路</t>
-  </si>
-  <si>
-    <t>台灣企銀台東分行臺東縣台東市中華路</t>
-  </si>
-  <si>
-    <t>台新銀行三重分行新北市三重區正義北路</t>
-  </si>
-  <si>
-    <t>台東縣都蘭農會臺東縣東河鄉都蘭村都蘭</t>
-  </si>
-  <si>
-    <t>90年01月12H</t>
-  </si>
-  <si>
-    <t>94年10月11曰</t>
-  </si>
-  <si>
-    <t>99年08月27日</t>
-  </si>
-  <si>
-    <t>93年08月31日</t>
-  </si>
-  <si>
-    <t>100年07月01日</t>
-  </si>
-  <si>
-    <t>96年03月13曰</t>
-  </si>
-  <si>
     <t>—般貸款</t>
   </si>
   <si>
     <t>信貸</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1645,61 +1654,103 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2529473</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>2529473</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>77</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>962</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1711,18 +1762,39 @@
         <v>4579121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>77</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2">
+        <v>962</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -1734,18 +1806,39 @@
         <v>6004284</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>77</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="2">
+        <v>962</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -1757,18 +1850,39 @@
         <v>305434</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2">
+        <v>962</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1780,41 +1894,83 @@
         <v>4742000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>78</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2">
+        <v>962</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2">
         <v>1848023</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>79</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2">
+        <v>962</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
@@ -1826,10 +1982,31 @@
         <v>330750</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2">
+        <v>962</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
